--- a/story/Main Story and Others 主线剧情等/guide 导航文字/misc/assist_char.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/misc/assist_char.xlsx
@@ -66,7 +66,7 @@
     <t>[PopupDialog(dialogHead="$avatar_sys")] 積極的に外部組織と友好な関係を築き、応援申請を行えるオペレーターの選択肢を増やしていくことをおすすめいたします。</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You might’ve noticed already, but the Backup support system at Rhodes Island allows you to request external aid before a battle begins.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] You might've noticed already, but the Backup support system at Rhodes Island allows you to request external aid before a battle begins.
 </t>
   </si>
   <si>
